--- a/作業実装日予定表.xlsx
+++ b/作業実装日予定表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takum\Desktop\GoblinExpedition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7976F9-1526-44CD-8261-225C5062924E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB23C585-BC22-43B5-A03F-0171D24EFCA2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="194">
   <si>
     <t>区分</t>
     <rPh sb="0" eb="2">
@@ -2439,6 +2439,63 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CharaBaseクラスに統括で制作しているためPlayerだけの関数などが作りにくい</t>
+    <rPh sb="13" eb="15">
+      <t>トウカツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いろいろ作業の進捗が遅れていたので少し進めました</t>
+    <rPh sb="4" eb="6">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗に遅れがありますが、コード設計が変化しやすいため余り進捗がありません</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>アマ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シンチョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3362,7 +3419,7 @@
   <dimension ref="A1:AE164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W9" sqref="W9"/>
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3799,7 +3856,6 @@
       <c r="AA8" s="39">
         <v>4.4907407407407403E-2</v>
       </c>
-      <c r="AB8" s="39"/>
       <c r="AC8" s="39"/>
       <c r="AD8" s="39"/>
       <c r="AE8" s="39"/>
@@ -3844,11 +3900,11 @@
       <c r="Q9" s="49"/>
       <c r="R9" s="42" t="str">
         <f>IFERROR(VLOOKUP($T9,検索範囲!$A$3:$B$7,2,0),"")</f>
-        <v>未実装</v>
+        <v>終了</v>
       </c>
       <c r="S9" s="43"/>
       <c r="T9" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U9" s="2" t="str">
         <f>IFERROR(VLOOKUP(V9,検索範囲!$D$1:$E$13,2,0),"")</f>
@@ -3857,12 +3913,19 @@
       <c r="V9" s="2">
         <v>4</v>
       </c>
-      <c r="W9" s="2"/>
+      <c r="W9" s="20">
+        <f>SUM($Z9:$AE9)</f>
+        <v>3.3379629629629634E-2</v>
+      </c>
       <c r="X9" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="38"/>
+      <c r="Y9" s="6">
+        <v>43307</v>
+      </c>
+      <c r="Z9" s="38">
+        <v>3.3379629629629634E-2</v>
+      </c>
       <c r="AA9" s="39"/>
       <c r="AB9" s="39"/>
       <c r="AC9" s="39"/>
@@ -3922,7 +3985,10 @@
       <c r="V10" s="2">
         <v>1</v>
       </c>
-      <c r="W10" s="2"/>
+      <c r="W10" s="20">
+        <f t="shared" ref="W10:W11" si="1">SUM($Z10:$AE10)</f>
+        <v>0</v>
+      </c>
       <c r="X10" s="32"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="38"/>
@@ -3972,11 +4038,11 @@
       <c r="Q11" s="49"/>
       <c r="R11" s="42" t="str">
         <f>IFERROR(VLOOKUP($T11,検索範囲!$A$3:$B$7,2,0),"")</f>
-        <v>未実装</v>
+        <v>終了</v>
       </c>
       <c r="S11" s="43"/>
       <c r="T11" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U11" s="2" t="str">
         <f>IFERROR(VLOOKUP(V11,検索範囲!$D$1:$E$13,2,0),"")</f>
@@ -3985,12 +4051,19 @@
       <c r="V11" s="2">
         <v>1</v>
       </c>
-      <c r="W11" s="2"/>
+      <c r="W11" s="20">
+        <f t="shared" si="1"/>
+        <v>4.9189814814814818E-2</v>
+      </c>
       <c r="X11" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="38"/>
+      <c r="Y11" s="6">
+        <v>43307</v>
+      </c>
+      <c r="Z11" s="38">
+        <v>4.9189814814814818E-2</v>
+      </c>
       <c r="AA11" s="39"/>
       <c r="AB11" s="39"/>
       <c r="AC11" s="39"/>
@@ -11068,7 +11141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:T241"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12:J12"/>
     </sheetView>
   </sheetViews>
@@ -11332,10 +11405,12 @@
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
       <c r="J11" s="48"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
       <c r="L11" s="2" t="str">
         <f>IFERROR(VLOOKUP($K11,問題点範囲!$A$2:$B$73,2,0),"")</f>
-        <v/>
+        <v>未解決</v>
       </c>
       <c r="M11" s="48"/>
       <c r="N11" s="48"/>
@@ -11347,8 +11422,12 @@
       <c r="T11" s="48"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="2"/>
-      <c r="C12" s="48"/>
+      <c r="B12" s="19">
+        <v>43307</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>191</v>
+      </c>
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
       <c r="F12" s="48"/>
@@ -11356,10 +11435,12 @@
       <c r="H12" s="48"/>
       <c r="I12" s="48"/>
       <c r="J12" s="48"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
       <c r="L12" s="2" t="str">
         <f>IFERROR(VLOOKUP($K12,問題点範囲!$A$2:$B$73,2,0),"")</f>
-        <v/>
+        <v>未解決</v>
       </c>
       <c r="M12" s="48"/>
       <c r="N12" s="48"/>
@@ -16399,12 +16480,12 @@
   <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:F10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="6" max="6" width="27.83203125" customWidth="1"/>
+    <col min="6" max="6" width="32.08203125" customWidth="1"/>
     <col min="14" max="14" width="35.58203125" customWidth="1"/>
     <col min="22" max="22" width="45.5" customWidth="1"/>
   </cols>
@@ -16526,13 +16607,19 @@
       <c r="V6" s="48"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2"/>
-      <c r="B7" s="42"/>
+      <c r="A7" s="6">
+        <v>43306</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>193</v>
+      </c>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
       <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
+      <c r="G7" s="42" t="s">
+        <v>192</v>
+      </c>
       <c r="H7" s="44"/>
       <c r="I7" s="44"/>
       <c r="J7" s="44"/>
@@ -17335,6 +17422,7 @@
     <mergeCell ref="G14:N14"/>
     <mergeCell ref="G15:N15"/>
     <mergeCell ref="G16:N16"/>
+    <mergeCell ref="B7:F7"/>
     <mergeCell ref="E1:K2"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:N4"/>
@@ -17350,7 +17438,6 @@
     <mergeCell ref="O11:V11"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>

--- a/作業実装日予定表.xlsx
+++ b/作業実装日予定表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takum\Desktop\GoblinExpedition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB23C585-BC22-43B5-A03F-0171D24EFCA2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91506E35-2AAC-4D27-8EF5-B9E52F218CC5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3419,7 +3419,7 @@
   <dimension ref="A1:AE164"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="R4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3986,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="W10" s="20">
-        <f t="shared" ref="W10:W11" si="1">SUM($Z10:$AE10)</f>
+        <f t="shared" ref="W10:W12" si="1">SUM($Z10:$AE10)</f>
         <v>0</v>
       </c>
       <c r="X10" s="32"/>
@@ -4110,21 +4110,28 @@
       <c r="Q12" s="49"/>
       <c r="R12" s="42" t="str">
         <f>IFERROR(VLOOKUP($T12,検索範囲!$A$3:$B$7,2,0),"")</f>
-        <v>未実装</v>
+        <v>終了</v>
       </c>
       <c r="S12" s="43"/>
       <c r="T12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U12" s="2" t="str">
         <f>IFERROR(VLOOKUP(V12,検索範囲!$D$1:$E$13,2,0),"")</f>
         <v/>
       </c>
       <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
+      <c r="W12" s="20">
+        <f t="shared" si="1"/>
+        <v>3.2118055555555559E-2</v>
+      </c>
       <c r="X12" s="32"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="38"/>
+      <c r="Y12" s="6">
+        <v>43307</v>
+      </c>
+      <c r="Z12" s="38">
+        <v>3.2118055555555559E-2</v>
+      </c>
       <c r="AA12" s="39"/>
       <c r="AB12" s="39"/>
       <c r="AC12" s="39"/>

--- a/作業実装日予定表.xlsx
+++ b/作業実装日予定表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4470" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4470" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="作業予定" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="204">
   <si>
     <t>区分</t>
     <rPh sb="0" eb="2">
@@ -2564,6 +2564,49 @@
     </rPh>
     <rPh sb="48" eb="50">
       <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Doxygenでの出力をしないと「なぜこんなにも出力をしたってなる」</t>
+    <rPh sb="9" eb="11">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XMLドキュメントを使用するということはDoxygenのようにドキュメントを出力してください</t>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスの友人H</t>
+    <rPh sb="4" eb="6">
+      <t>ユウジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>switch文が多くなっているならtxtファイルなどにスクリプトを書いて適用されてばいいのではないか？</t>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>テキヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3486,8 +3529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE164"/>
   <sheetViews>
-    <sheetView topLeftCell="O4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11234,8 +11277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11:T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11577,8 +11620,12 @@
       <c r="T13" s="48"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B14" s="2"/>
-      <c r="C14" s="48"/>
+      <c r="B14" s="19">
+        <v>43307</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>200</v>
+      </c>
       <c r="D14" s="48"/>
       <c r="E14" s="48"/>
       <c r="F14" s="48"/>
@@ -11586,10 +11633,12 @@
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
       <c r="L14" s="2" t="str">
         <f>IFERROR(VLOOKUP($K14,問題点範囲!$A$2:$B$73,2,0),"")</f>
-        <v/>
+        <v>未解決</v>
       </c>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
@@ -17630,8 +17679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R431"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17987,9 +18036,15 @@
       <c r="R15" s="65"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="57"/>
+      <c r="A16" s="6">
+        <v>43305</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>201</v>
+      </c>
       <c r="D16" s="58"/>
       <c r="E16" s="58"/>
       <c r="F16" s="58"/>
@@ -18007,9 +18062,15 @@
       <c r="R16" s="65"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="57"/>
+      <c r="A17" s="6">
+        <v>43307</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>203</v>
+      </c>
       <c r="D17" s="58"/>
       <c r="E17" s="58"/>
       <c r="F17" s="58"/>

--- a/作業実装日予定表.xlsx
+++ b/作業実装日予定表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takum\Desktop\GoblinExpedition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85A142E-B9CB-4F3D-BBED-36654DC4C0FB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47F0352-EF6C-4AC5-858D-EDCFB2ECE9D5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="245">
   <si>
     <t>区分</t>
     <rPh sb="0" eb="2">
@@ -2935,16 +2935,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データを保存してリザルトにデータを送る</t>
-    <rPh sb="4" eb="6">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>就職作品ではROMデータになるため、外部ファイルでのセーブデータが使用出来ない</t>
     <rPh sb="0" eb="2">
       <t>シュウショク</t>
@@ -3127,6 +3117,40 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面でのデータを送れるようにしました</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト画面でデータをアクセスする</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面の描画</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ビョウガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルトでデータを送れるようにしました</t>
+    <rPh sb="9" eb="10">
+      <t>オク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4179,8 +4203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="R25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -5933,7 +5957,7 @@
         <v>9</v>
       </c>
       <c r="W27" s="45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="X27" s="31" t="s">
         <v>42</v>
@@ -6193,11 +6217,11 @@
       <c r="Q31" s="57"/>
       <c r="R31" s="54" t="str">
         <f>IFERROR(VLOOKUP($T31,検索範囲!$A$3:$B$198,2,0),"")</f>
-        <v>未実装</v>
+        <v>後で実装</v>
       </c>
       <c r="S31" s="56"/>
       <c r="T31" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U31" s="2" t="str">
         <f>IFERROR(VLOOKUP(V31,検索範囲!$D$1:$E$13,2,0),"")</f>
@@ -6254,11 +6278,11 @@
       <c r="Q32" s="57"/>
       <c r="R32" s="54" t="str">
         <f>IFERROR(VLOOKUP($T32,検索範囲!$A$3:$B$198,2,0),"")</f>
-        <v>未実装</v>
+        <v>後で実装</v>
       </c>
       <c r="S32" s="56"/>
       <c r="T32" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U32" s="2" t="str">
         <f>IFERROR(VLOOKUP(V32,検索範囲!$D$1:$E$13,2,0),"")</f>
@@ -6315,11 +6339,11 @@
       <c r="Q33" s="57"/>
       <c r="R33" s="54" t="str">
         <f>IFERROR(VLOOKUP($T33,検索範囲!$A$3:$B$198,2,0),"")</f>
-        <v>未実装</v>
+        <v>後で実装</v>
       </c>
       <c r="S33" s="56"/>
       <c r="T33" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U33" s="2" t="str">
         <f>IFERROR(VLOOKUP(V33,検索範囲!$D$1:$E$13,2,0),"")</f>
@@ -6380,11 +6404,11 @@
       <c r="Q34" s="57"/>
       <c r="R34" s="54" t="str">
         <f>IFERROR(VLOOKUP($T34,検索範囲!$A$3:$B$198,2,0),"")</f>
-        <v>未実装</v>
+        <v>後で実装</v>
       </c>
       <c r="S34" s="56"/>
       <c r="T34" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U34" s="2" t="str">
         <f>IFERROR(VLOOKUP(V34,検索範囲!$D$1:$E$13,2,0),"")</f>
@@ -6445,11 +6469,11 @@
       <c r="Q35" s="57"/>
       <c r="R35" s="54" t="str">
         <f>IFERROR(VLOOKUP($T35,検索範囲!$A$3:$B$198,2,0),"")</f>
-        <v>未実装</v>
+        <v>後で実装</v>
       </c>
       <c r="S35" s="56"/>
       <c r="T35" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U35" s="2" t="str">
         <f>IFERROR(VLOOKUP(V35,検索範囲!$D$1:$E$13,2,0),"")</f>
@@ -6508,11 +6532,11 @@
       <c r="Q36" s="57"/>
       <c r="R36" s="54" t="str">
         <f>IFERROR(VLOOKUP($T36,検索範囲!$A$3:$B$198,2,0),"")</f>
-        <v>未実装</v>
+        <v>後で実装</v>
       </c>
       <c r="S36" s="56"/>
       <c r="T36" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U36" s="2" t="str">
         <f>IFERROR(VLOOKUP(V36,検索範囲!$D$1:$E$13,2,0),"")</f>
@@ -6583,7 +6607,7 @@
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="X37" s="31"/>
       <c r="Y37" s="49">
@@ -6636,11 +6660,11 @@
       <c r="Q38" s="57"/>
       <c r="R38" s="54" t="str">
         <f>IFERROR(VLOOKUP($T38,検索範囲!$A$3:$B$198,2,0),"")</f>
-        <v>未実装</v>
+        <v>終了</v>
       </c>
       <c r="S38" s="56"/>
       <c r="T38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U38" s="2" t="str">
         <f>IFERROR(VLOOKUP(V38,検索範囲!$D$1:$E$13,2,0),"")</f>
@@ -6649,12 +6673,19 @@
       <c r="V38" s="2">
         <v>8</v>
       </c>
-      <c r="W38" s="45"/>
+      <c r="W38" s="48">
+        <f>SUM($Z38:$AE38)</f>
+        <v>2.989583333333333E-2</v>
+      </c>
       <c r="X38" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Y38" s="42"/>
-      <c r="Z38" s="38"/>
+      <c r="Y38" s="47">
+        <v>43317</v>
+      </c>
+      <c r="Z38" s="38">
+        <v>2.989583333333333E-2</v>
+      </c>
       <c r="AA38" s="36"/>
       <c r="AB38" s="36"/>
       <c r="AC38" s="36"/>
@@ -12006,7 +12037,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D8" s="8">
         <v>6</v>
@@ -12029,7 +12060,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" s="7">
         <v>7</v>
@@ -12473,7 +12504,7 @@
         <v>43316</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D15" s="53"/>
       <c r="E15" s="53"/>
@@ -12490,7 +12521,7 @@
         <v>未解決</v>
       </c>
       <c r="M15" s="53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N15" s="53"/>
       <c r="O15" s="53"/>
@@ -12505,7 +12536,7 @@
         <v>43316</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D16" s="53"/>
       <c r="E16" s="53"/>
@@ -12522,7 +12553,7 @@
         <v>解決</v>
       </c>
       <c r="M16" s="53" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N16" s="53"/>
       <c r="O16" s="53"/>
@@ -12537,7 +12568,7 @@
         <v>43316</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="53"/>
@@ -12554,7 +12585,7 @@
         <v>解決</v>
       </c>
       <c r="M17" s="53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="N17" s="53"/>
       <c r="O17" s="53"/>
@@ -17475,8 +17506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView topLeftCell="N4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:F15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -17838,7 +17869,7 @@
       <c r="E14" s="55"/>
       <c r="F14" s="56"/>
       <c r="G14" s="55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H14" s="55"/>
       <c r="I14" s="55"/>
@@ -17848,7 +17879,7 @@
       <c r="M14" s="55"/>
       <c r="N14" s="56"/>
       <c r="O14" s="53" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="P14" s="53"/>
       <c r="Q14" s="53"/>
@@ -17863,13 +17894,15 @@
         <v>43317</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="56"/>
-      <c r="G15" s="55"/>
+      <c r="G15" s="55" t="s">
+        <v>241</v>
+      </c>
       <c r="H15" s="55"/>
       <c r="I15" s="55"/>
       <c r="J15" s="55"/>
@@ -17877,7 +17910,9 @@
       <c r="L15" s="55"/>
       <c r="M15" s="55"/>
       <c r="N15" s="56"/>
-      <c r="O15" s="53"/>
+      <c r="O15" s="53" t="s">
+        <v>243</v>
+      </c>
       <c r="P15" s="53"/>
       <c r="Q15" s="53"/>
       <c r="R15" s="53"/>
@@ -17887,8 +17922,12 @@
       <c r="V15" s="53"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="6">
+        <v>43318</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>244</v>
+      </c>
       <c r="C16" s="55"/>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
